--- a/Code/Results/Cases/Case_5_189/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_189/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.129598972994188</v>
+        <v>0.5123330574880072</v>
       </c>
       <c r="C2">
-        <v>0.1083808816711027</v>
+        <v>0.1191298221600121</v>
       </c>
       <c r="D2">
-        <v>0.07375425990424134</v>
+        <v>0.04629170208831823</v>
       </c>
       <c r="E2">
-        <v>0.06423503232498362</v>
+        <v>0.1009989519192374</v>
       </c>
       <c r="F2">
-        <v>0.5409226866603305</v>
+        <v>0.9232754284974618</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.3982661111623074</v>
+        <v>0.8623522309721103</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.995417829162875</v>
+        <v>0.3285408004581996</v>
       </c>
       <c r="L2">
-        <v>0.2608043701796987</v>
+        <v>0.2043011126019394</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.663215866237095</v>
+        <v>3.289596083056225</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9817746118082482</v>
+        <v>0.4690635668912932</v>
       </c>
       <c r="C3">
-        <v>0.1043842989973598</v>
+        <v>0.1177010559582499</v>
       </c>
       <c r="D3">
-        <v>0.067559573847781</v>
+        <v>0.04408252612715557</v>
       </c>
       <c r="E3">
-        <v>0.06012325209503899</v>
+        <v>0.1005822379081991</v>
       </c>
       <c r="F3">
-        <v>0.5215918872731393</v>
+        <v>0.9252923456370752</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.4028725888960345</v>
+        <v>0.869696731390853</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8686677259930775</v>
+        <v>0.2894826279240021</v>
       </c>
       <c r="L3">
-        <v>0.2301100906982896</v>
+        <v>0.1968817526098974</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.647162718424198</v>
+        <v>3.310028172141486</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8911811304842843</v>
+        <v>0.4425834031724207</v>
       </c>
       <c r="C4">
-        <v>0.1019337793067763</v>
+        <v>0.1168192702539415</v>
       </c>
       <c r="D4">
-        <v>0.06374158596563007</v>
+        <v>0.04271260762028817</v>
       </c>
       <c r="E4">
-        <v>0.05768916813806158</v>
+        <v>0.1003781762352318</v>
       </c>
       <c r="F4">
-        <v>0.5107955910536575</v>
+        <v>0.9270721256038712</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.4065258723047442</v>
+        <v>0.8746426740282693</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7908629719012765</v>
+        <v>0.2654701821502954</v>
       </c>
       <c r="L4">
-        <v>0.2114877573435621</v>
+        <v>0.1924331771722478</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.640805465161762</v>
+        <v>3.324370843595617</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.854294133927624</v>
+        <v>0.4318152270989515</v>
       </c>
       <c r="C5">
-        <v>0.1009357738112797</v>
+        <v>0.1164588272108276</v>
       </c>
       <c r="D5">
-        <v>0.06218179997770079</v>
+        <v>0.04215099352329332</v>
       </c>
       <c r="E5">
-        <v>0.05671892092307829</v>
+        <v>0.1003080642353389</v>
       </c>
       <c r="F5">
-        <v>0.5066533967881526</v>
+        <v>0.9279335626859222</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.4082146074665864</v>
+        <v>0.876767926181973</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.759152021391472</v>
+        <v>0.2556778000440119</v>
       </c>
       <c r="L5">
-        <v>0.203950444666873</v>
+        <v>0.1906473205182522</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.639058378989503</v>
+        <v>3.330667545683099</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8481705720158459</v>
+        <v>0.4300285719298813</v>
       </c>
       <c r="C6">
-        <v>0.1007700850483388</v>
+        <v>0.116398909806172</v>
       </c>
       <c r="D6">
-        <v>0.06192255331720276</v>
+        <v>0.04205753572987447</v>
       </c>
       <c r="E6">
-        <v>0.05655908888129169</v>
+        <v>0.1002972106127373</v>
       </c>
       <c r="F6">
-        <v>0.5059807820550404</v>
+        <v>0.9280848283095935</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.4085068887950527</v>
+        <v>0.8771274509294074</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7538858665979262</v>
+        <v>0.2540513695667386</v>
       </c>
       <c r="L6">
-        <v>0.2027018475545077</v>
+        <v>0.1903524119767468</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.638818192022256</v>
+        <v>3.331740404910875</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.890683551709742</v>
+        <v>0.4424380869089646</v>
       </c>
       <c r="C7">
-        <v>0.1019203177415307</v>
+        <v>0.1168144136428921</v>
       </c>
       <c r="D7">
-        <v>0.06372056641786372</v>
+        <v>0.0427050470686936</v>
       </c>
       <c r="E7">
-        <v>0.05767599676964608</v>
+        <v>0.1003771778376183</v>
       </c>
       <c r="F7">
-        <v>0.5107387018112988</v>
+        <v>0.9270831918951643</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.4065478469884418</v>
+        <v>0.8746708915793562</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7904353394800125</v>
+        <v>0.2653381467112013</v>
       </c>
       <c r="L7">
-        <v>0.2113859045442723</v>
+        <v>0.1924089831579181</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.640778534746062</v>
+        <v>3.324453933202548</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.078585806746872</v>
+        <v>0.4973959915840851</v>
       </c>
       <c r="C8">
-        <v>0.1070019947293233</v>
+        <v>0.118638137342316</v>
       </c>
       <c r="D8">
-        <v>0.07162113952657734</v>
+        <v>0.04553279084195339</v>
       </c>
       <c r="E8">
-        <v>0.06279780747133756</v>
+        <v>0.100844528149473</v>
       </c>
       <c r="F8">
-        <v>0.5340270983999602</v>
+        <v>0.9238585112105255</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.3996786401258738</v>
+        <v>0.8647940459803252</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9517039429360636</v>
+        <v>0.3150802177987657</v>
       </c>
       <c r="L8">
-        <v>0.2501714382291311</v>
+        <v>0.2017207683886681</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.656931972640976</v>
+        <v>3.296268040646083</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.449036916548977</v>
+        <v>0.6058367801736892</v>
       </c>
       <c r="C9">
-        <v>0.1170070703877997</v>
+        <v>0.1221775609745208</v>
       </c>
       <c r="D9">
-        <v>0.08701475442639151</v>
+        <v>0.05097010280109515</v>
       </c>
       <c r="E9">
-        <v>0.07361345926423368</v>
+        <v>0.102171380338536</v>
       </c>
       <c r="F9">
-        <v>0.5887994224184538</v>
+        <v>0.9218304246864619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.393105672179118</v>
+        <v>0.8488880017014075</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.268607568825729</v>
+        <v>0.4123613429555633</v>
       </c>
       <c r="L9">
-        <v>0.3282446888086525</v>
+        <v>0.2208272049869606</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.718107837980824</v>
+        <v>3.255257870112388</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.723348927115666</v>
+        <v>0.6858895072661539</v>
       </c>
       <c r="C10">
-        <v>0.1244024905738641</v>
+        <v>0.1247543254561378</v>
       </c>
       <c r="D10">
-        <v>0.0982872692690222</v>
+        <v>0.05489818443147954</v>
       </c>
       <c r="E10">
-        <v>0.08210887865022798</v>
+        <v>0.1033957758699131</v>
       </c>
       <c r="F10">
-        <v>0.6354612847587759</v>
+        <v>0.9229603830096877</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.3929984813201983</v>
+        <v>0.8393126654137504</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.502592429777991</v>
+        <v>0.4836531176303822</v>
       </c>
       <c r="L10">
-        <v>0.3871869192659432</v>
+        <v>0.2353788483306971</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.783587220930684</v>
+        <v>3.233827271308002</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.848830487434384</v>
+        <v>0.7223853077837248</v>
       </c>
       <c r="C11">
-        <v>0.1277815924776888</v>
+        <v>0.1259211991945932</v>
       </c>
       <c r="D11">
-        <v>0.103412999836884</v>
+        <v>0.05667050661892858</v>
       </c>
       <c r="E11">
-        <v>0.08611148824944337</v>
+        <v>0.1040068576514663</v>
       </c>
       <c r="F11">
-        <v>0.6582892530480962</v>
+        <v>0.9240437183541275</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.3940974061621461</v>
+        <v>0.8354149840221368</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.609470951661905</v>
+        <v>0.5160424854635153</v>
       </c>
       <c r="L11">
-        <v>0.4144287169842045</v>
+        <v>0.2421101631598077</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.81843872276707</v>
+        <v>3.225968220368202</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.896466746550374</v>
+        <v>0.7362161328603065</v>
       </c>
       <c r="C12">
-        <v>0.1290637565320978</v>
+        <v>0.1263622761533014</v>
       </c>
       <c r="D12">
-        <v>0.10535414745965</v>
+        <v>0.05733951892217704</v>
       </c>
       <c r="E12">
-        <v>0.08764865471696126</v>
+        <v>0.1042460226719868</v>
       </c>
       <c r="F12">
-        <v>0.6671822097152997</v>
+        <v>0.9245358177941725</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.3946895305968141</v>
+        <v>0.8340049254962452</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.650021865463316</v>
+        <v>0.5283010296032273</v>
       </c>
       <c r="L12">
-        <v>0.4248135117062048</v>
+        <v>0.2446751393163282</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.832418419883254</v>
+        <v>3.223264026484685</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.886201809261678</v>
+        <v>0.7332369553317335</v>
       </c>
       <c r="C13">
-        <v>0.1287874979192551</v>
+        <v>0.126267318062915</v>
       </c>
       <c r="D13">
-        <v>0.1049360724621309</v>
+        <v>0.05719553026893465</v>
       </c>
       <c r="E13">
-        <v>0.08731661680161196</v>
+        <v>0.1041941692877622</v>
       </c>
       <c r="F13">
-        <v>0.6652555965177456</v>
+        <v>0.9244261945103389</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.3945539966911298</v>
+        <v>0.8343056751670019</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.641284758854766</v>
+        <v>0.5256612364967737</v>
       </c>
       <c r="L13">
-        <v>0.4225737740437978</v>
+        <v>0.2441220168104934</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.829371955644774</v>
+        <v>3.223834330453457</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.852747049594313</v>
+        <v>0.7235229688529898</v>
       </c>
       <c r="C14">
-        <v>0.1278870227440336</v>
+        <v>0.1259575029172169</v>
       </c>
       <c r="D14">
-        <v>0.1035726935639332</v>
+        <v>0.05672558948079853</v>
       </c>
       <c r="E14">
-        <v>0.08623751200499541</v>
+        <v>0.1040263784486939</v>
       </c>
       <c r="F14">
-        <v>0.6590157927258247</v>
+        <v>0.9240825630160998</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.394142528219696</v>
+        <v>0.8352976566218757</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.612805437388829</v>
+        <v>0.5170511392269646</v>
       </c>
       <c r="L14">
-        <v>0.4152816556417775</v>
+        <v>0.2423208656733919</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.819572842587093</v>
+        <v>3.225740295690258</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.832271145853298</v>
+        <v>0.7175742369852003</v>
       </c>
       <c r="C15">
-        <v>0.1273358040260888</v>
+        <v>0.1257676280814835</v>
       </c>
       <c r="D15">
-        <v>0.1027376176986508</v>
+        <v>0.05643745918341381</v>
       </c>
       <c r="E15">
-        <v>0.08557937445826624</v>
+        <v>0.103924611980851</v>
       </c>
       <c r="F15">
-        <v>0.6552266573029613</v>
+        <v>0.9238827398001987</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.3939137480182566</v>
+        <v>0.8359138578321321</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.595371709380913</v>
+        <v>0.5117763272508569</v>
       </c>
       <c r="L15">
-        <v>0.4108242220267044</v>
+        <v>0.2412196861462945</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.81367413029318</v>
+        <v>3.226943161381428</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.715164009993742</v>
+        <v>0.6835059536811343</v>
       </c>
       <c r="C16">
-        <v>0.1241819938391444</v>
+        <v>0.1246779581637725</v>
       </c>
       <c r="D16">
-        <v>0.09795228515431376</v>
+        <v>0.05478206295052956</v>
       </c>
       <c r="E16">
-        <v>0.08185021178594454</v>
+        <v>0.1033569273259651</v>
       </c>
       <c r="F16">
-        <v>0.6340031763237732</v>
+        <v>0.9229010403202125</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.3929506777338361</v>
+        <v>0.8395766098472919</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.495617764302494</v>
+        <v>0.4815355056018973</v>
       </c>
       <c r="L16">
-        <v>0.3854158403507455</v>
+        <v>0.2349411811617585</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.781416030759345</v>
+        <v>3.23437891586687</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.643513892576806</v>
+        <v>0.6626259621279473</v>
       </c>
       <c r="C17">
-        <v>0.122251341017467</v>
+        <v>0.1240081001759208</v>
       </c>
       <c r="D17">
-        <v>0.09501639376721016</v>
+        <v>0.05376277428631937</v>
       </c>
       <c r="E17">
-        <v>0.0795989569918909</v>
+        <v>0.1030225144909025</v>
       </c>
       <c r="F17">
-        <v>0.6214059767899016</v>
+        <v>0.9224446124916739</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.3926613777743491</v>
+        <v>0.8419409580604338</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.434544643458565</v>
+        <v>0.462972638518778</v>
       </c>
       <c r="L17">
-        <v>0.3699434370750794</v>
+        <v>0.2311180674700637</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.762961109398617</v>
+        <v>3.239424615939384</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.602366895180182</v>
+        <v>0.6506238634293311</v>
       </c>
       <c r="C18">
-        <v>0.121142253902697</v>
+        <v>0.1236223175777624</v>
       </c>
       <c r="D18">
-        <v>0.09332751076387069</v>
+        <v>0.05317513572825305</v>
       </c>
       <c r="E18">
-        <v>0.07831698097102446</v>
+        <v>0.102835262104719</v>
       </c>
       <c r="F18">
-        <v>0.6143099560214154</v>
+        <v>0.9222356738047139</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.3926023081539611</v>
+        <v>0.8433439940478351</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.399457203207334</v>
+        <v>0.4522918881025078</v>
       </c>
       <c r="L18">
-        <v>0.3610840053882498</v>
+        <v>0.228929632602302</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.752819592998947</v>
+        <v>3.242504643479919</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.5884457057291</v>
+        <v>0.6465614738891929</v>
       </c>
       <c r="C19">
-        <v>0.1207669594346399</v>
+        <v>0.1234916135818622</v>
       </c>
       <c r="D19">
-        <v>0.09275563000463194</v>
+        <v>0.05297593693433811</v>
       </c>
       <c r="E19">
-        <v>0.07788509144752709</v>
+        <v>0.1027727369326215</v>
       </c>
       <c r="F19">
-        <v>0.6119325154449484</v>
+        <v>0.9221741343498522</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.3926004200986526</v>
+        <v>0.8438264440854084</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.387583652900446</v>
+        <v>0.4486749220789648</v>
       </c>
       <c r="L19">
-        <v>0.3580909908134373</v>
+        <v>0.2281904755097344</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.749465550486917</v>
+        <v>3.243578034833916</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.651134385911604</v>
+        <v>0.6648479000897112</v>
       </c>
       <c r="C20">
-        <v>0.1224567171754245</v>
+        <v>0.1240794594570502</v>
       </c>
       <c r="D20">
-        <v>0.09532894560929606</v>
+        <v>0.05387142138765455</v>
       </c>
       <c r="E20">
-        <v>0.079837261829379</v>
+        <v>0.1030575863258782</v>
       </c>
       <c r="F20">
-        <v>0.6227313635245011</v>
+        <v>0.9224876540218858</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.3926809892156662</v>
+        <v>0.8416848056750545</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.441041712552362</v>
+        <v>0.4649490935107963</v>
       </c>
       <c r="L20">
-        <v>0.3715863217153128</v>
+        <v>0.2315239564140512</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.764876307202485</v>
+        <v>3.238869082479852</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.862570131662238</v>
+        <v>0.7263759189740426</v>
       </c>
       <c r="C21">
-        <v>0.128151440715925</v>
+        <v>0.1260485248847729</v>
       </c>
       <c r="D21">
-        <v>0.1039731432327429</v>
+        <v>0.05686368047116019</v>
       </c>
       <c r="E21">
-        <v>0.08655387524017399</v>
+        <v>0.1040754521785914</v>
       </c>
       <c r="F21">
-        <v>0.6608416785918578</v>
+        <v>0.9241812741798512</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.3942585193351391</v>
+        <v>0.8350044987010961</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.621168249879929</v>
+        <v>0.5195803177526557</v>
       </c>
       <c r="L21">
-        <v>0.4174215967257169</v>
+        <v>0.2428494746227443</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.822429403127359</v>
+        <v>3.225173088543499</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.001459790501656</v>
+        <v>0.7666498039228031</v>
       </c>
       <c r="C22">
-        <v>0.1318884887736829</v>
+        <v>0.1273307884709709</v>
       </c>
       <c r="D22">
-        <v>0.1096237077340021</v>
+        <v>0.05880687897974468</v>
       </c>
       <c r="E22">
-        <v>0.09106951534477048</v>
+        <v>0.1047859187120821</v>
       </c>
       <c r="F22">
-        <v>0.6872067967167226</v>
+        <v>0.9257653160497625</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.3963209306675139</v>
+        <v>0.8310227090928635</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.739355958232721</v>
+        <v>0.5552461858651441</v>
       </c>
       <c r="L22">
-        <v>0.4477830439066537</v>
+        <v>0.2503444186268808</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.864630624625988</v>
+        <v>3.21780660806175</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.927260658264828</v>
+        <v>0.7451494730673573</v>
       </c>
       <c r="C23">
-        <v>0.1298924109508732</v>
+        <v>0.1266468539510228</v>
       </c>
       <c r="D23">
-        <v>0.1066076351840621</v>
+        <v>0.05777090356419734</v>
       </c>
       <c r="E23">
-        <v>0.08864734560500054</v>
+        <v>0.1044025964408704</v>
       </c>
       <c r="F23">
-        <v>0.6729954909389164</v>
+        <v>0.9248762237614656</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.3951219947750317</v>
+        <v>0.833112705668519</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.676229046913676</v>
+        <v>0.5362143955424301</v>
       </c>
       <c r="L23">
-        <v>0.4315389337242834</v>
+        <v>0.246335740164227</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.841668536044438</v>
+        <v>3.221593209157021</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.647689020237209</v>
+        <v>0.6638433553811183</v>
       </c>
       <c r="C24">
-        <v>0.1223638639338063</v>
+        <v>0.1240472000192341</v>
       </c>
       <c r="D24">
-        <v>0.09518764407060587</v>
+        <v>0.05382230712677938</v>
       </c>
       <c r="E24">
-        <v>0.07972948602082752</v>
+        <v>0.103041714755026</v>
       </c>
       <c r="F24">
-        <v>0.622131701926385</v>
+        <v>0.9224680283973186</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.3926717896339049</v>
+        <v>0.8418004759198041</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.438104313044164</v>
+        <v>0.4640555652966327</v>
       </c>
       <c r="L24">
-        <v>0.3708434624204671</v>
+        <v>0.2313404243500798</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.764008991147989</v>
+        <v>3.239119681004439</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.348515608233754</v>
+        <v>0.5764318291403754</v>
       </c>
       <c r="C25">
-        <v>0.1142941622373854</v>
+        <v>0.1212241234455149</v>
       </c>
       <c r="D25">
-        <v>0.08285869223809073</v>
+        <v>0.04951081336815832</v>
       </c>
       <c r="E25">
-        <v>0.07059707097372581</v>
+        <v>0.1017685615904185</v>
       </c>
       <c r="F25">
-        <v>0.5729207255144004</v>
+        <v>0.9219190703958375</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.3940939335736999</v>
+        <v>0.8528203267250447</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.182731581564326</v>
+        <v>0.3860744843158841</v>
       </c>
       <c r="L25">
-        <v>0.3068729197879492</v>
+        <v>0.215567999149286</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.6981463463691</v>
+        <v>3.264824820660806</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_189/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_189/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5123330574880072</v>
+        <v>1.129598972994216</v>
       </c>
       <c r="C2">
-        <v>0.1191298221600121</v>
+        <v>0.1083808816711027</v>
       </c>
       <c r="D2">
-        <v>0.04629170208831823</v>
+        <v>0.07375425990424134</v>
       </c>
       <c r="E2">
-        <v>0.1009989519192374</v>
+        <v>0.06423503232499428</v>
       </c>
       <c r="F2">
-        <v>0.9232754284974618</v>
+        <v>0.5409226866603518</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.8623522309721103</v>
+        <v>0.3982661111623145</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3285408004581996</v>
+        <v>0.9954178291628466</v>
       </c>
       <c r="L2">
-        <v>0.2043011126019394</v>
+        <v>0.260804370179784</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.289596083056225</v>
+        <v>1.663215866237067</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4690635668912932</v>
+        <v>0.9817746118082482</v>
       </c>
       <c r="C3">
-        <v>0.1177010559582499</v>
+        <v>0.1043842989971182</v>
       </c>
       <c r="D3">
-        <v>0.04408252612715557</v>
+        <v>0.06755957384790179</v>
       </c>
       <c r="E3">
-        <v>0.1005822379081991</v>
+        <v>0.0601232520950532</v>
       </c>
       <c r="F3">
-        <v>0.9252923456370752</v>
+        <v>0.5215918872731322</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.869696731390853</v>
+        <v>0.4028725888960416</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2894826279240021</v>
+        <v>0.8686677259931344</v>
       </c>
       <c r="L3">
-        <v>0.1968817526098974</v>
+        <v>0.2301100906982754</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.310028172141486</v>
+        <v>1.647162718424298</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4425834031724207</v>
+        <v>0.891181130484199</v>
       </c>
       <c r="C4">
-        <v>0.1168192702539415</v>
+        <v>0.1019337793065347</v>
       </c>
       <c r="D4">
-        <v>0.04271260762028817</v>
+        <v>0.06374158596555901</v>
       </c>
       <c r="E4">
-        <v>0.1003781762352318</v>
+        <v>0.05768916813807579</v>
       </c>
       <c r="F4">
-        <v>0.9270721256038712</v>
+        <v>0.5107955910536575</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.8746426740282693</v>
+        <v>0.4065258723047229</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2654701821502954</v>
+        <v>0.7908629719013334</v>
       </c>
       <c r="L4">
-        <v>0.1924331771722478</v>
+        <v>0.2114877573435194</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.324370843595617</v>
+        <v>1.64080546516179</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4318152270989515</v>
+        <v>0.8542941339274819</v>
       </c>
       <c r="C5">
-        <v>0.1164588272108276</v>
+        <v>0.1009357738112016</v>
       </c>
       <c r="D5">
-        <v>0.04215099352329332</v>
+        <v>0.0621817999777079</v>
       </c>
       <c r="E5">
-        <v>0.1003080642353389</v>
+        <v>0.05671892092307829</v>
       </c>
       <c r="F5">
-        <v>0.9279335626859222</v>
+        <v>0.5066533967881526</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.876767926181973</v>
+        <v>0.4082146074665829</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2556778000440119</v>
+        <v>0.7591520213916141</v>
       </c>
       <c r="L5">
-        <v>0.1906473205182522</v>
+        <v>0.2039504446669156</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.330667545683099</v>
+        <v>1.639058378989617</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4300285719298813</v>
+        <v>0.8481705720159027</v>
       </c>
       <c r="C6">
-        <v>0.116398909806172</v>
+        <v>0.1007700850483459</v>
       </c>
       <c r="D6">
-        <v>0.04205753572987447</v>
+        <v>0.06192255331736618</v>
       </c>
       <c r="E6">
-        <v>0.1002972106127373</v>
+        <v>0.05655908888129524</v>
       </c>
       <c r="F6">
-        <v>0.9280848283095935</v>
+        <v>0.5059807820550759</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.8771274509294074</v>
+        <v>0.4085068887950705</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2540513695667386</v>
+        <v>0.7538858665978552</v>
       </c>
       <c r="L6">
-        <v>0.1903524119767468</v>
+        <v>0.2027018475545646</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.331740404910875</v>
+        <v>1.638818192022185</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4424380869089646</v>
+        <v>0.8906835517096852</v>
       </c>
       <c r="C7">
-        <v>0.1168144136428921</v>
+        <v>0.1019203177415235</v>
       </c>
       <c r="D7">
-        <v>0.0427050470686936</v>
+        <v>0.06372056641782819</v>
       </c>
       <c r="E7">
-        <v>0.1003771778376183</v>
+        <v>0.05767599676962831</v>
       </c>
       <c r="F7">
-        <v>0.9270831918951643</v>
+        <v>0.5107387018112988</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.8746708915793562</v>
+        <v>0.406547846988456</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2653381467112013</v>
+        <v>0.790435339479842</v>
       </c>
       <c r="L7">
-        <v>0.1924089831579181</v>
+        <v>0.2113859045442155</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.324453933202548</v>
+        <v>1.640778534746062</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4973959915840851</v>
+        <v>1.078585806746872</v>
       </c>
       <c r="C8">
-        <v>0.118638137342316</v>
+        <v>0.107001994729103</v>
       </c>
       <c r="D8">
-        <v>0.04553279084195339</v>
+        <v>0.07162113952654181</v>
       </c>
       <c r="E8">
-        <v>0.100844528149473</v>
+        <v>0.06279780747132335</v>
       </c>
       <c r="F8">
-        <v>0.9238585112105255</v>
+        <v>0.5340270983999744</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.8647940459803252</v>
+        <v>0.3996786401258596</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3150802177987657</v>
+        <v>0.9517039429361205</v>
       </c>
       <c r="L8">
-        <v>0.2017207683886681</v>
+        <v>0.2501714382291453</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.296268040646083</v>
+        <v>1.656931972640933</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6058367801736892</v>
+        <v>1.449036916548863</v>
       </c>
       <c r="C9">
-        <v>0.1221775609745208</v>
+        <v>0.1170070703875723</v>
       </c>
       <c r="D9">
-        <v>0.05097010280109515</v>
+        <v>0.08701475442650519</v>
       </c>
       <c r="E9">
-        <v>0.102171380338536</v>
+        <v>0.07361345926421947</v>
       </c>
       <c r="F9">
-        <v>0.9218304246864619</v>
+        <v>0.5887994224184325</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.8488880017014075</v>
+        <v>0.3931056721791251</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4123613429555633</v>
+        <v>1.268607568825757</v>
       </c>
       <c r="L9">
-        <v>0.2208272049869606</v>
+        <v>0.3282446888086099</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.255257870112388</v>
+        <v>1.718107837980796</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6858895072661539</v>
+        <v>1.723348927115467</v>
       </c>
       <c r="C10">
-        <v>0.1247543254561378</v>
+        <v>0.1244024905741909</v>
       </c>
       <c r="D10">
-        <v>0.05489818443147954</v>
+        <v>0.09828726926897957</v>
       </c>
       <c r="E10">
-        <v>0.1033957758699131</v>
+        <v>0.08210887865021022</v>
       </c>
       <c r="F10">
-        <v>0.9229603830096877</v>
+        <v>0.6354612847587759</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.8393126654137504</v>
+        <v>0.3929984813202125</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4836531176303822</v>
+        <v>1.502592429778105</v>
       </c>
       <c r="L10">
-        <v>0.2353788483306971</v>
+        <v>0.387186919265929</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.233827271308002</v>
+        <v>1.783587220930656</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7223853077837248</v>
+        <v>1.848830487434327</v>
       </c>
       <c r="C11">
-        <v>0.1259211991945932</v>
+        <v>0.1277815924777812</v>
       </c>
       <c r="D11">
-        <v>0.05667050661892858</v>
+        <v>0.1034129998369906</v>
       </c>
       <c r="E11">
-        <v>0.1040068576514663</v>
+        <v>0.08611148824944337</v>
       </c>
       <c r="F11">
-        <v>0.9240437183541275</v>
+        <v>0.6582892530480819</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.8354149840221368</v>
+        <v>0.394097406162139</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5160424854635153</v>
+        <v>1.609470951661962</v>
       </c>
       <c r="L11">
-        <v>0.2421101631598077</v>
+        <v>0.414428716984176</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.225968220368202</v>
+        <v>1.818438722767183</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7362161328603065</v>
+        <v>1.896466746550345</v>
       </c>
       <c r="C12">
-        <v>0.1263622761533014</v>
+        <v>0.1290637565320978</v>
       </c>
       <c r="D12">
-        <v>0.05733951892217704</v>
+        <v>0.1053541474595221</v>
       </c>
       <c r="E12">
-        <v>0.1042460226719868</v>
+        <v>0.08764865471697547</v>
       </c>
       <c r="F12">
-        <v>0.9245358177941725</v>
+        <v>0.6671822097153282</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.8340049254962452</v>
+        <v>0.3946895305968141</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5283010296032273</v>
+        <v>1.650021865463458</v>
       </c>
       <c r="L12">
-        <v>0.2446751393163282</v>
+        <v>0.4248135117062617</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.223264026484685</v>
+        <v>1.832418419883311</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7332369553317335</v>
+        <v>1.886201809261593</v>
       </c>
       <c r="C13">
-        <v>0.126267318062915</v>
+        <v>0.1287874979195962</v>
       </c>
       <c r="D13">
-        <v>0.05719553026893465</v>
+        <v>0.1049360724623511</v>
       </c>
       <c r="E13">
-        <v>0.1041941692877622</v>
+        <v>0.08731661680159775</v>
       </c>
       <c r="F13">
-        <v>0.9244261945103389</v>
+        <v>0.6652555965177314</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.8343056751670019</v>
+        <v>0.3945539966911156</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5256612364967737</v>
+        <v>1.641284758854709</v>
       </c>
       <c r="L13">
-        <v>0.2441220168104934</v>
+        <v>0.4225737740439257</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.223834330453457</v>
+        <v>1.829371955644717</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7235229688529898</v>
+        <v>1.85274704959437</v>
       </c>
       <c r="C14">
-        <v>0.1259575029172169</v>
+        <v>0.1278870227440194</v>
       </c>
       <c r="D14">
-        <v>0.05672558948079853</v>
+        <v>0.103572693564054</v>
       </c>
       <c r="E14">
-        <v>0.1040263784486939</v>
+        <v>0.0862375120049812</v>
       </c>
       <c r="F14">
-        <v>0.9240825630160998</v>
+        <v>0.659015792725846</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.8352976566218757</v>
+        <v>0.3941425282197031</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5170511392269646</v>
+        <v>1.612805437388801</v>
       </c>
       <c r="L14">
-        <v>0.2423208656733919</v>
+        <v>0.4152816556416781</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.225740295690258</v>
+        <v>1.819572842587121</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7175742369852003</v>
+        <v>1.832271145853497</v>
       </c>
       <c r="C15">
-        <v>0.1257676280814835</v>
+        <v>0.1273358040264014</v>
       </c>
       <c r="D15">
-        <v>0.05643745918341381</v>
+        <v>0.1027376176984092</v>
       </c>
       <c r="E15">
-        <v>0.103924611980851</v>
+        <v>0.08557937445824848</v>
       </c>
       <c r="F15">
-        <v>0.9238827398001987</v>
+        <v>0.6552266573029613</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.8359138578321321</v>
+        <v>0.3939137480182566</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5117763272508569</v>
+        <v>1.5953717093808</v>
       </c>
       <c r="L15">
-        <v>0.2412196861462945</v>
+        <v>0.4108242220267471</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.226943161381428</v>
+        <v>1.813674130293037</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6835059536811343</v>
+        <v>1.715164009993686</v>
       </c>
       <c r="C16">
-        <v>0.1246779581637725</v>
+        <v>0.1241819938392368</v>
       </c>
       <c r="D16">
-        <v>0.05478206295052956</v>
+        <v>0.09795228515431376</v>
       </c>
       <c r="E16">
-        <v>0.1033569273259651</v>
+        <v>0.08185021178594454</v>
       </c>
       <c r="F16">
-        <v>0.9229010403202125</v>
+        <v>0.6340031763237448</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.8395766098472919</v>
+        <v>0.392950677733829</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4815355056018973</v>
+        <v>1.495617764302466</v>
       </c>
       <c r="L16">
-        <v>0.2349411811617585</v>
+        <v>0.3854158403507881</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.23437891586687</v>
+        <v>1.781416030759289</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6626259621279473</v>
+        <v>1.643513892576806</v>
       </c>
       <c r="C17">
-        <v>0.1240081001759208</v>
+        <v>0.1222513410177086</v>
       </c>
       <c r="D17">
-        <v>0.05376277428631937</v>
+        <v>0.09501639376732385</v>
       </c>
       <c r="E17">
-        <v>0.1030225144909025</v>
+        <v>0.0795989569918909</v>
       </c>
       <c r="F17">
-        <v>0.9224446124916739</v>
+        <v>0.6214059767899087</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.8419409580604338</v>
+        <v>0.3926613777743313</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.462972638518778</v>
+        <v>1.434544643458423</v>
       </c>
       <c r="L17">
-        <v>0.2311180674700637</v>
+        <v>0.3699434370751504</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.239424615939384</v>
+        <v>1.762961109398589</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6506238634293311</v>
+        <v>1.602366895180211</v>
       </c>
       <c r="C18">
-        <v>0.1236223175777624</v>
+        <v>0.1211422539025975</v>
       </c>
       <c r="D18">
-        <v>0.05317513572825305</v>
+        <v>0.09332751076386359</v>
       </c>
       <c r="E18">
-        <v>0.102835262104719</v>
+        <v>0.07831698097102091</v>
       </c>
       <c r="F18">
-        <v>0.9222356738047139</v>
+        <v>0.6143099560214154</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.8433439940478351</v>
+        <v>0.3926023081539469</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4522918881025078</v>
+        <v>1.399457203207277</v>
       </c>
       <c r="L18">
-        <v>0.228929632602302</v>
+        <v>0.3610840053881361</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.242504643479919</v>
+        <v>1.752819592998918</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6465614738891929</v>
+        <v>1.588445705728986</v>
       </c>
       <c r="C19">
-        <v>0.1234916135818622</v>
+        <v>0.1207669594344054</v>
       </c>
       <c r="D19">
-        <v>0.05297593693433811</v>
+        <v>0.09275563000468168</v>
       </c>
       <c r="E19">
-        <v>0.1027727369326215</v>
+        <v>0.07788509144755196</v>
       </c>
       <c r="F19">
-        <v>0.9221741343498522</v>
+        <v>0.6119325154449626</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.8438264440854084</v>
+        <v>0.3926004200986419</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4486749220789648</v>
+        <v>1.387583652900474</v>
       </c>
       <c r="L19">
-        <v>0.2281904755097344</v>
+        <v>0.3580909908134942</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.243578034833916</v>
+        <v>1.749465550486917</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6648479000897112</v>
+        <v>1.651134385911774</v>
       </c>
       <c r="C20">
-        <v>0.1240794594570502</v>
+        <v>0.1224567171758864</v>
       </c>
       <c r="D20">
-        <v>0.05387142138765455</v>
+        <v>0.09532894560946659</v>
       </c>
       <c r="E20">
-        <v>0.1030575863258782</v>
+        <v>0.079837261829379</v>
       </c>
       <c r="F20">
-        <v>0.9224876540218858</v>
+        <v>0.6227313635245011</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.8416848056750545</v>
+        <v>0.3926809892156804</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4649490935107963</v>
+        <v>1.441041712552362</v>
       </c>
       <c r="L20">
-        <v>0.2315239564140512</v>
+        <v>0.3715863217153696</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.238869082479852</v>
+        <v>1.764876307202371</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7263759189740426</v>
+        <v>1.86257013166221</v>
       </c>
       <c r="C21">
-        <v>0.1260485248847729</v>
+        <v>0.1281514407158753</v>
       </c>
       <c r="D21">
-        <v>0.05686368047116019</v>
+        <v>0.1039731432328566</v>
       </c>
       <c r="E21">
-        <v>0.1040754521785914</v>
+        <v>0.0865538752401882</v>
       </c>
       <c r="F21">
-        <v>0.9241812741798512</v>
+        <v>0.6608416785918578</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.8350044987010961</v>
+        <v>0.3942585193351604</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5195803177526557</v>
+        <v>1.621168249879901</v>
       </c>
       <c r="L21">
-        <v>0.2428494746227443</v>
+        <v>0.4174215967257169</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.225173088543499</v>
+        <v>1.822429403127302</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7666498039228031</v>
+        <v>2.001459790501599</v>
       </c>
       <c r="C22">
-        <v>0.1273307884709709</v>
+        <v>0.1318884887736829</v>
       </c>
       <c r="D22">
-        <v>0.05880687897974468</v>
+        <v>0.1096237077340518</v>
       </c>
       <c r="E22">
-        <v>0.1047859187120821</v>
+        <v>0.09106951534476693</v>
       </c>
       <c r="F22">
-        <v>0.9257653160497625</v>
+        <v>0.6872067967167084</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.8310227090928635</v>
+        <v>0.3963209306675068</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5552461858651441</v>
+        <v>1.739355958232665</v>
       </c>
       <c r="L22">
-        <v>0.2503444186268808</v>
+        <v>0.4477830439065968</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.21780660806175</v>
+        <v>1.864630624625903</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7451494730673573</v>
+        <v>1.927260658264771</v>
       </c>
       <c r="C23">
-        <v>0.1266468539510228</v>
+        <v>0.1298924109512072</v>
       </c>
       <c r="D23">
-        <v>0.05777090356419734</v>
+        <v>0.1066076351839413</v>
       </c>
       <c r="E23">
-        <v>0.1044025964408704</v>
+        <v>0.08864734560498277</v>
       </c>
       <c r="F23">
-        <v>0.9248762237614656</v>
+        <v>0.6729954909389235</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.833112705668519</v>
+        <v>0.3951219947750388</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5362143955424301</v>
+        <v>1.676229046913562</v>
       </c>
       <c r="L23">
-        <v>0.246335740164227</v>
+        <v>0.4315389337243971</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.221593209157021</v>
+        <v>1.841668536044494</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6638433553811183</v>
+        <v>1.647689020237237</v>
       </c>
       <c r="C24">
-        <v>0.1240472000192341</v>
+        <v>0.1223638639337921</v>
       </c>
       <c r="D24">
-        <v>0.05382230712677938</v>
+        <v>0.09518764407060587</v>
       </c>
       <c r="E24">
-        <v>0.103041714755026</v>
+        <v>0.0797294860207991</v>
       </c>
       <c r="F24">
-        <v>0.9224680283973186</v>
+        <v>0.6221317019263637</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.8418004759198041</v>
+        <v>0.3926717896338978</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4640555652966327</v>
+        <v>1.438104313044079</v>
       </c>
       <c r="L24">
-        <v>0.2313404243500798</v>
+        <v>0.3708434624205807</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.239119681004439</v>
+        <v>1.764008991147961</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5764318291403754</v>
+        <v>1.348515608233754</v>
       </c>
       <c r="C25">
-        <v>0.1212241234455149</v>
+        <v>0.1142941622376981</v>
       </c>
       <c r="D25">
-        <v>0.04951081336815832</v>
+        <v>0.08285869223795572</v>
       </c>
       <c r="E25">
-        <v>0.1017685615904185</v>
+        <v>0.07059707097374002</v>
       </c>
       <c r="F25">
-        <v>0.9219190703958375</v>
+        <v>0.5729207255144075</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.8528203267250447</v>
+        <v>0.394093933573707</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3860744843158841</v>
+        <v>1.182731581564298</v>
       </c>
       <c r="L25">
-        <v>0.215567999149286</v>
+        <v>0.3068729197881055</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.264824820660806</v>
+        <v>1.698146346369043</v>
       </c>
     </row>
   </sheetData>
